--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\Java Projects\Udemy Complete Java Masterclass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJ\Java Projects\Udemy Complete Java Masterclass\udemycjm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>sec8lec65 konstruktor i super().</t>
   </si>
   <si>
-    <t xml:space="preserve">sec8lec65 czemu switch musi mieć wartość default skoro przeskanowalismy wszystkie wartości? </t>
-  </si>
-  <si>
     <t>Jeżeli mamy metodę, której argumentem jest utworzony typ (nie prymitywny) co oznacza jeżeli zwrócimy null?</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>Czy po merge usuwać branche?</t>
+  </si>
+  <si>
+    <t>sec8lec65 czemu switch musi mieć wartość default skoro przeskanowalismy wszystkie wartości? Czy java wie jaki jest pełen zakres danych do sprawdzenia?</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="B8:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -414,22 +414,22 @@
     </row>
     <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>sec8lec65 czemu switch musi mieć wartość default skoro przeskanowalismy wszystkie wartości? Czy java wie jaki jest pełen zakres danych do sprawdzenia?</t>
+  </si>
+  <si>
+    <t>Kiedy używać i co oznacza static?</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:C14"/>
+  <dimension ref="B8:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -432,6 +435,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>43242</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Kiedy używać i co oznacza static?</t>
+  </si>
+  <si>
+    <t>Wypytać dokładniej o moduł testowania.</t>
   </si>
 </sst>
 </file>
@@ -383,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:C15"/>
+  <dimension ref="B8:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -443,6 +446,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Wypytać dokładniej o moduł testowania.</t>
+  </si>
+  <si>
+    <t>jak push to czy wszystkie gałęzie się dostają na serwer? Pushuje konkretnt branch. W przypadku master nie trzeba tego dopisywać do komendy.</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:C16"/>
+  <dimension ref="B8:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,6 +454,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="17" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>43243</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>jak push to czy wszystkie gałęzie się dostają na serwer? Pushuje konkretnt branch. W przypadku master nie trzeba tego dopisywać do komendy.</t>
+  </si>
+  <si>
+    <t>lec67TB, dlaczego double price = hamburger.itemizeHamburger(); ta metoda się wykonuje? Dlaczego sout na tej metodzie się wykonuje w tej kolejności</t>
   </si>
 </sst>
 </file>
@@ -389,9 +392,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:C17"/>
+  <dimension ref="B8:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -462,6 +465,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="18" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>lec67TB, dlaczego double price = hamburger.itemizeHamburger(); ta metoda się wykonuje? Dlaczego sout na tej metodzie się wykonuje w tej kolejności</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adnotacje sa odczytywane przez srodowiska, frameworki. </t>
+  </si>
+  <si>
+    <t>iterface maja tylko przepisy na metody</t>
+  </si>
+  <si>
+    <t>implementacja</t>
+  </si>
+  <si>
+    <t>late binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch random. Tablica trzech ksztaltow. Losuje i wrzycasz trojkat, okrag, kwadrat. </t>
+  </si>
+  <si>
+    <t>overide</t>
   </si>
 </sst>
 </file>
@@ -392,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:C18"/>
+  <dimension ref="B8:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,48 +421,65 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83.28515625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>43241</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>43242</v>
       </c>
@@ -452,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
@@ -468,6 +503,11 @@
     <row r="18" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -53,9 +53,6 @@
     <t>Wypytać dokładniej o moduł testowania.</t>
   </si>
   <si>
-    <t>jak push to czy wszystkie gałęzie się dostają na serwer? Pushuje konkretnt branch. W przypadku master nie trzeba tego dopisywać do komendy.</t>
-  </si>
-  <si>
     <t>lec67TB, dlaczego double price = hamburger.itemizeHamburger(); ta metoda się wykonuje? Dlaczego sout na tej metodzie się wykonuje w tej kolejności</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>overide</t>
+  </si>
+  <si>
+    <t>sec5lec37 komentarze</t>
   </si>
 </sst>
 </file>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E19"/>
+  <dimension ref="B8:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -434,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
@@ -442,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -468,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -492,22 +492,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>43243</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="18" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>43336</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>sec5lec37 komentarze</t>
+  </si>
+  <si>
+    <t>Czy można przeszukać intellij słowem klucz po kodzie? Na random().</t>
+  </si>
+  <si>
+    <t>czy można gdzieś przetrzymywać sobie swoje metody, jakaś ogólna baza? Np. sortowanie, wypisywanie na ekran itd.?</t>
+  </si>
+  <si>
+    <t>array[i] = (int) (Math.random()*100); jak bez nawiasu to wurzuca 0. najpierw castuje do 0.</t>
+  </si>
+  <si>
+    <t>lec70</t>
   </si>
 </sst>
 </file>
@@ -145,6 +157,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4782217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="5610225"/>
+          <a:ext cx="4782217" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E20"/>
+  <dimension ref="B8:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -492,31 +547,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>43243</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>43336</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>43245</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>lec70</t>
+  </si>
+  <si>
+    <t>lec70.TB komentarze</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E27"/>
+  <dimension ref="B8:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,6 +596,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>43251</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>lec70.TB komentarze</t>
+  </si>
+  <si>
+    <t>Można się odwoływać w metodzie Main do innych metod z innych klas instancja.metoda. Jak się można odwołać, nie będąc w metodzie Main do innej klasy?</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E33"/>
+  <dimension ref="B8:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,6 +607,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="35" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>43294</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Można się odwoływać w metodzie Main do innych metod z innych klas instancja.metoda. Jak się można odwołać, nie będąc w metodzie Main do innej klasy?</t>
+  </si>
+  <si>
+    <t>Można utworzyć instancję klasy Klasa nazwa = new Klasa(), lub private Klasa nazwa. Jaka różnica</t>
+  </si>
+  <si>
+    <t>lec67test komentarz</t>
+  </si>
+  <si>
+    <t>lec80 main, jak przetestowac metodę readIntegers. Wejscie rozmiar tablicy, uzytkownik podaje inty a na wyjsciu tablica int[]</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E35"/>
+  <dimension ref="B8:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,6 +624,21 @@
         <v>22</v>
       </c>
     </row>
+    <row r="36" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>lec80 main, jak przetestowac metodę readIntegers. Wejscie rozmiar tablicy, uzytkownik podaje inty a na wyjsciu tablica int[]</t>
+  </si>
+  <si>
+    <t>lec81 jak powinno się odwolywac do metod z innego pakkietu. Moje utils</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E39"/>
+  <dimension ref="B8:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,6 +642,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -92,9 +92,6 @@
     <t>lec70.TB komentarze</t>
   </si>
   <si>
-    <t>Można się odwoływać w metodzie Main do innych metod z innych klas instancja.metoda. Jak się można odwołać, nie będąc w metodzie Main do innej klasy?</t>
-  </si>
-  <si>
     <t>Można utworzyć instancję klasy Klasa nazwa = new Klasa(), lub private Klasa nazwa. Jaka różnica</t>
   </si>
   <si>
@@ -105,6 +102,18 @@
   </si>
   <si>
     <t>lec81 jak powinno się odwolywac do metod z innego pakkietu. Moje utils</t>
+  </si>
+  <si>
+    <t>lec80, co jest bardziej czasochlonne for do polowy rozmiaru tablicy ale dodatkowa linijka kodu czy krotszy kod ale for po calej tablicy</t>
+  </si>
+  <si>
+    <t>Można się odwoływać w metodzie Main do innych metod z innych klas instancja.metoda. Jak się można odwołać, nie będąc w metodzie Main do innej klasy? - ogólnie jak najlepiej się odwolywac do  metod z innych klas czy pakietów.</t>
+  </si>
+  <si>
+    <t>scanner.nextLine() - "to clear the input buffer' ? Po co jest ta komenda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lec82 Main. </t>
   </si>
 </sst>
 </file>
@@ -483,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E40"/>
+  <dimension ref="B8:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,32 +628,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>43294</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C39" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C40" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>43295</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/2018-05-21-Q&AtoKN.xlsx
+++ b/2018-05-21-Q&AtoKN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>@overide to adnotacja, która ma informawać o nadpisaniu metody. Czemu specjalna konstrukcja z @, można by przecież użyć //overide? Czy może to coś więcej niż zwykły komentarz</t>
   </si>
@@ -92,9 +92,6 @@
     <t>lec70.TB komentarze</t>
   </si>
   <si>
-    <t>Można się odwoływać w metodzie Main do innych metod z innych klas instancja.metoda. Jak się można odwołać, nie będąc w metodzie Main do innej klasy?</t>
-  </si>
-  <si>
     <t>Można utworzyć instancję klasy Klasa nazwa = new Klasa(), lub private Klasa nazwa. Jaka różnica</t>
   </si>
   <si>
@@ -104,14 +101,55 @@
     <t>lec80 main, jak przetestowac metodę readIntegers. Wejscie rozmiar tablicy, uzytkownik podaje inty a na wyjsciu tablica int[]</t>
   </si>
   <si>
-    <t>lec81 jak powinno się odwolywac do metod z innego pakkietu. Moje utils</t>
+    <t>lec80, co jest bardziej czasochlonne for do polowy rozmiaru tablicy ale dodatkowa linijka kodu czy krotszy kod ale for po calej tablicy</t>
+  </si>
+  <si>
+    <t>scanner.nextLine() - "to clear the input buffer' ? Po co jest ta komenda?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lec82 Main. </t>
+  </si>
+  <si>
+    <t>lec85Main</t>
+  </si>
+  <si>
+    <t>lec81 jak powinno się odwolywac do metod z innego pakietu. Moje utils</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Można się odwoływać w metodzie Main do innych metod (muszą być public) z innych klas: tworzę instancję klasy new.... i potem  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>instancja.metoda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>. Jak się można odwołać, nie będąc w metodzie Main do innej klasy? - ogólnie jak najlepiej się odwolywac do  metod z innych klas czy pakietów.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -148,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -158,6 +212,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -209,6 +266,120 @@
         <a:xfrm>
           <a:off x="1362075" y="5610225"/>
           <a:ext cx="4782217" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7173326</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="10134600"/>
+          <a:ext cx="7173326" cy="724001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2925615</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Obraz 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="13030200"/>
+          <a:ext cx="10317015" cy="2448267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4906060</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obraz 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="13935075"/>
+          <a:ext cx="4906060" cy="571580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,23 +654,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:E40"/>
+  <dimension ref="A8:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="110.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="80.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B8" s="2">
         <v>43241</v>
       </c>
@@ -510,7 +684,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
@@ -518,17 +695,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
@@ -536,7 +722,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
@@ -547,12 +736,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B15" s="2">
         <v>43242</v>
       </c>
@@ -560,27 +755,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" s="2">
         <v>43243</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B20" s="2">
         <v>43336</v>
       </c>
@@ -588,7 +798,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B21" s="2">
         <v>43245</v>
       </c>
@@ -596,22 +809,74 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B33" s="2">
         <v>43251</v>
       </c>
@@ -619,33 +884,68 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>43294</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="3" t="s">
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C39" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C40" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>43295</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>43298</v>
+      </c>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>43289</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
